--- a/backend/static/templates/danh_sach_GV_mau_import.xlsx
+++ b/backend/static/templates/danh_sach_GV_mau_import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\GEMS_E-Learning\backend\src\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\DORA_E-Learning\backend\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB54C77E-7BCA-4088-B54D-506A20060266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E077744-ACCF-4D53-9EB4-E01A0CB4F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CFE1EF17-F73F-4F50-9EAB-9AA27C4315F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CFE1EF17-F73F-4F50-9EAB-9AA27C4315F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Thông tin GV" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Tên tài khoản</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>10.</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -588,12 +591,52 @@
     <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,57 +646,8 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -996,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE413FA-1713-4FE5-A069-F0BC07B101C9}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1011,7 @@
     <col min="13" max="13" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.44140625" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="45" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" style="5" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="5"/>
@@ -1072,16 +1066,19 @@
       <c r="O1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
@@ -1126,14 +1123,14 @@
       <c r="O2" s="12">
         <v>0</v>
       </c>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1178,26 +1175,26 @@
       <c r="O3" s="12">
         <v>0</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1286,7 +1283,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1300,41 +1297,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="33"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
@@ -1343,7 +1340,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
@@ -1352,14 +1349,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="28" t="s">
         <v>16</v>
       </c>
@@ -1373,124 +1370,124 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="30"/>
-    </row>
-    <row r="10" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="35" t="s">
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="35" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="34"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="18" t="s">
         <v>36</v>
       </c>
@@ -1499,7 +1496,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
@@ -1508,7 +1505,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="18" t="s">
         <v>38</v>
       </c>
@@ -1517,7 +1514,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="18" t="s">
         <v>39</v>
       </c>
@@ -1526,25 +1523,30 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="A26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B9:C9"/>
@@ -1558,11 +1560,6 @@
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{EE6D3AD2-35B3-4D51-B6B7-D8D7A48B711B}">
